--- a/Euler–Bernoulli beam/Bending.xlsx
+++ b/Euler–Bernoulli beam/Bending.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\source\Учеба\3 курс\Вычислительная механика\МКЭ\Finite_element_method\Euler–Bernoulli beam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A2C83B-A4D8-4805-B11D-84A859A92A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DB4EA1-41AE-45B5-9CAD-E7752E4227B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1995" windowWidth="21615" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35340" yWindow="3555" windowWidth="21615" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Abaqus" sheetId="1" r:id="rId1"/>
-    <sheet name="Python" sheetId="4" r:id="rId2"/>
+    <sheet name="Python" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Coordinate, m</t>
+  </si>
+  <si>
+    <t>Displacements Y, mm</t>
+  </si>
+  <si>
+    <t>Forses, kN</t>
+  </si>
+  <si>
+    <t>Moments kN*m</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -43,7 +47,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -57,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,20 +71,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -91,9 +113,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -101,44 +123,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -168,12 +190,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -203,7 +225,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -212,255 +234,539 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D23"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="A1:E24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="2"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1.533742331292879E-2</v>
+      </c>
+      <c r="D2">
+        <v>-1.1581846592889631E-9</v>
+      </c>
+      <c r="E2">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="C3">
+        <v>1.3842024539920171E-2</v>
+      </c>
+      <c r="D3">
+        <v>6.5147887085004186E-10</v>
+      </c>
+      <c r="E3">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.10526315789473679</v>
+      </c>
+      <c r="C4">
+        <v>1.242331288347585E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.4477308241112041E-10</v>
+      </c>
+      <c r="E4">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.15789473684210531</v>
+      </c>
+      <c r="C5">
+        <v>1.1081288343595839E-2</v>
+      </c>
+      <c r="D5">
+        <v>-1.4477308241112039E-9</v>
+      </c>
+      <c r="E5">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="C6">
+        <v>9.8159509202801233E-3</v>
+      </c>
+      <c r="D6">
+        <v>-2.1715962361668062E-9</v>
+      </c>
+      <c r="E6">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="C7">
+        <v>8.6273006135287288E-3</v>
+      </c>
+      <c r="D7">
+        <v>-2.243982777372366E-9</v>
+      </c>
+      <c r="E7">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="C8">
+        <v>7.5153374233416876E-3</v>
+      </c>
+      <c r="D8">
+        <v>-2.1715962361668062E-9</v>
+      </c>
+      <c r="E8">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="C9">
+        <v>6.4800613497190424E-3</v>
+      </c>
+      <c r="D9">
+        <v>-1.3029577417000839E-9</v>
+      </c>
+      <c r="E9">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.42105263157894729</v>
+      </c>
+      <c r="C10">
+        <v>5.5214723926608348E-3</v>
+      </c>
+      <c r="D10">
+        <v>-1.2305712004945239E-9</v>
+      </c>
+      <c r="E10">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.47368421052631582</v>
+      </c>
+      <c r="C11">
+        <v>4.639570552167095E-3</v>
+      </c>
+      <c r="D11">
+        <v>-2.6421087540029479E-9</v>
+      </c>
+      <c r="E11">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="C12">
+        <v>3.834355828237847E-3</v>
+      </c>
+      <c r="D12">
+        <v>-2.3887558597834868E-9</v>
+      </c>
+      <c r="E12">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="C13">
+        <v>3.1058282208731251E-3</v>
+      </c>
+      <c r="D13">
+        <v>-2.2077895067695859E-9</v>
+      </c>
+      <c r="E13">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="C14">
+        <v>2.4539877300729638E-3</v>
+      </c>
+      <c r="D14">
+        <v>-2.4249491303862669E-9</v>
+      </c>
+      <c r="E14">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.68421052631578938</v>
+      </c>
+      <c r="C15">
+        <v>1.878834355837398E-3</v>
+      </c>
+      <c r="D15">
+        <v>-2.3525625891807071E-9</v>
+      </c>
+      <c r="E15">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="C16">
+        <v>1.3803680981664609E-3</v>
+      </c>
+      <c r="D16">
+        <v>-2.1896928714681958E-9</v>
+      </c>
+      <c r="E16">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="C17">
+        <v>9.5858895706018774E-4</v>
+      </c>
+      <c r="D17">
+        <v>-2.3344659538793171E-9</v>
+      </c>
+      <c r="E17">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="C18">
+        <v>6.1349693251861338E-4</v>
+      </c>
+      <c r="D18">
+        <v>-2.316369318577927E-9</v>
+      </c>
+      <c r="E18">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="C19">
+        <v>3.4509202454177239E-4</v>
+      </c>
+      <c r="D19">
+        <v>-2.316369318577927E-9</v>
+      </c>
+      <c r="E19">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="C20">
+        <v>1.533742331296998E-4</v>
+      </c>
+      <c r="D20">
+        <v>-2.2711277303244511E-9</v>
+      </c>
+      <c r="E20">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>3.8343558282430751E-5</v>
+      </c>
+      <c r="D21">
+        <v>-2.262079412673756E-9</v>
+      </c>
+      <c r="E21">
+        <v>-10000</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0678CCF7-B0D6-49FC-A02B-507E593D0CCE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Euler–Bernoulli beam/Bending.xlsx
+++ b/Euler–Bernoulli beam/Bending.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\source\Учеба\3 курс\Вычислительная механика\МКЭ\Finite_element_method\Euler–Bernoulli beam\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DB4EA1-41AE-45B5-9CAD-E7752E4227B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35340" yWindow="3555" windowWidth="21615" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -37,8 +31,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,25 +91,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -153,7 +139,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -187,7 +173,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -222,10 +207,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -398,21 +382,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -434,336 +411,166 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.533742331292879E-2</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-1.1581846592889631E-9</v>
+        <v>-300</v>
       </c>
       <c r="E2">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-3.393119119010635E-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.2631578947368418E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C3">
-        <v>1.3842024539920171E-2</v>
+        <v>-0.0001932515297085047</v>
       </c>
       <c r="D3">
-        <v>6.5147887085004186E-10</v>
+        <v>-300</v>
       </c>
       <c r="E3">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.10526315789473679</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C4">
-        <v>1.242331288347585E-2</v>
+        <v>-0.0003680981462821364</v>
       </c>
       <c r="D4">
-        <v>1.4477308241112041E-10</v>
+        <v>-300</v>
       </c>
       <c r="E4">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.15789473684210531</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C5">
-        <v>1.1081288343595839E-2</v>
+        <v>-0.0005061349947936833</v>
       </c>
       <c r="D5">
-        <v>-1.4477308241112039E-9</v>
+        <v>-300</v>
       </c>
       <c r="E5">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2105263157894737</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C6">
-        <v>9.8159509202801233E-3</v>
+        <v>-0.0005889570456929505</v>
       </c>
       <c r="D6">
-        <v>-2.1715962361668062E-9</v>
+        <v>200</v>
       </c>
       <c r="E6">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.26315789473684209</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C7">
-        <v>8.6273006135287288E-3</v>
+        <v>-0.0006032719975337386</v>
       </c>
       <c r="D7">
-        <v>-2.243982777372366E-9</v>
+        <v>200</v>
       </c>
       <c r="E7">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.31578947368421051</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C8">
-        <v>7.5153374233416876E-3</v>
+        <v>-0.0005562372389249504</v>
       </c>
       <c r="D8">
-        <v>-2.1715962361668062E-9</v>
+        <v>200</v>
       </c>
       <c r="E8">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.36842105263157893</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="C9">
-        <v>6.4800613497190424E-3</v>
+        <v>-0.000460122711956501</v>
       </c>
       <c r="D9">
-        <v>-1.3029577417000839E-9</v>
+        <v>200</v>
       </c>
       <c r="E9">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.42105263157894729</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C10">
-        <v>5.5214723926608348E-3</v>
+        <v>-0.0003271983587183058</v>
       </c>
       <c r="D10">
-        <v>-1.2305712004945239E-9</v>
+        <v>200</v>
       </c>
       <c r="E10">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.47368421052631582</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>4.639570552167095E-3</v>
+        <v>-0.0001697341504041106</v>
       </c>
       <c r="D11">
-        <v>-2.6421087540029479E-9</v>
+        <v>200</v>
       </c>
       <c r="E11">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.52631578947368418</v>
-      </c>
-      <c r="C12">
-        <v>3.834355828237847E-3</v>
-      </c>
-      <c r="D12">
-        <v>-2.3887558597834868E-9</v>
-      </c>
-      <c r="E12">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.57894736842105265</v>
-      </c>
-      <c r="C13">
-        <v>3.1058282208731251E-3</v>
-      </c>
-      <c r="D13">
-        <v>-2.2077895067695859E-9</v>
-      </c>
-      <c r="E13">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0.63157894736842102</v>
-      </c>
-      <c r="C14">
-        <v>2.4539877300729638E-3</v>
-      </c>
-      <c r="D14">
-        <v>-2.4249491303862669E-9</v>
-      </c>
-      <c r="E14">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0.68421052631578938</v>
-      </c>
-      <c r="C15">
-        <v>1.878834355837398E-3</v>
-      </c>
-      <c r="D15">
-        <v>-2.3525625891807071E-9</v>
-      </c>
-      <c r="E15">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0.73684210526315785</v>
-      </c>
-      <c r="C16">
-        <v>1.3803680981664609E-3</v>
-      </c>
-      <c r="D16">
-        <v>-2.1896928714681958E-9</v>
-      </c>
-      <c r="E16">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>0.78947368421052633</v>
-      </c>
-      <c r="C17">
-        <v>9.5858895706018774E-4</v>
-      </c>
-      <c r="D17">
-        <v>-2.3344659538793171E-9</v>
-      </c>
-      <c r="E17">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>0.84210526315789469</v>
-      </c>
-      <c r="C18">
-        <v>6.1349693251861338E-4</v>
-      </c>
-      <c r="D18">
-        <v>-2.316369318577927E-9</v>
-      </c>
-      <c r="E18">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0.89473684210526305</v>
-      </c>
-      <c r="C19">
-        <v>3.4509202454177239E-4</v>
-      </c>
-      <c r="D19">
-        <v>-2.316369318577927E-9</v>
-      </c>
-      <c r="E19">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>0.94736842105263153</v>
-      </c>
-      <c r="C20">
-        <v>1.533742331296998E-4</v>
-      </c>
-      <c r="D20">
-        <v>-2.2711277303244511E-9</v>
-      </c>
-      <c r="E20">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>3.8343558282430751E-5</v>
-      </c>
-      <c r="D21">
-        <v>-2.262079412673756E-9</v>
-      </c>
-      <c r="E21">
-        <v>-10000</v>
+        <v>-400</v>
       </c>
     </row>
   </sheetData>

--- a/Euler–Bernoulli beam/Bending.xlsx
+++ b/Euler–Bernoulli beam/Bending.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,13 +411,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.01533742331292879</v>
       </c>
       <c r="D2">
-        <v>-300</v>
+        <v>-0</v>
       </c>
       <c r="E2">
-        <v>-3.393119119010635E-10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1111111111111111</v>
+        <v>0.05</v>
       </c>
       <c r="C3">
-        <v>-0.0001932515297085047</v>
+        <v>0.01384202453992017</v>
       </c>
       <c r="D3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-600</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2222222222222222</v>
+        <v>0.1</v>
       </c>
       <c r="C4">
-        <v>-0.0003680981462821364</v>
+        <v>0.01242331288347585</v>
       </c>
       <c r="D4">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-1200</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3333333333333333</v>
+        <v>0.15</v>
       </c>
       <c r="C5">
-        <v>-0.0005061349947936833</v>
+        <v>0.01108128834359584</v>
       </c>
       <c r="D5">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>-1800</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4444444444444444</v>
+        <v>0.2</v>
       </c>
       <c r="C6">
-        <v>-0.0005889570456929505</v>
+        <v>0.009815950920280123</v>
       </c>
       <c r="D6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-2400</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5555555555555556</v>
+        <v>0.25</v>
       </c>
       <c r="C7">
-        <v>-0.0006032719975337386</v>
+        <v>0.008627300613528729</v>
       </c>
       <c r="D7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-2000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6666666666666666</v>
+        <v>0.3</v>
       </c>
       <c r="C8">
-        <v>-0.0005562372389249504</v>
+        <v>0.007515337423341688</v>
       </c>
       <c r="D8">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>-1600</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7777777777777777</v>
+        <v>0.35</v>
       </c>
       <c r="C9">
-        <v>-0.000460122711956501</v>
+        <v>0.006480061349719042</v>
       </c>
       <c r="D9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>-1200</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8888888888888888</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
-        <v>-0.0003271983587183058</v>
+        <v>0.005521472392660835</v>
       </c>
       <c r="D10">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-800</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,203 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.45</v>
+      </c>
+      <c r="C11">
+        <v>0.004639570552167095</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <v>0.003834355828237847</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.55</v>
+      </c>
+      <c r="C13">
+        <v>0.003105828220873125</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.002453987730072964</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.65</v>
+      </c>
+      <c r="C15">
+        <v>0.001878834355837398</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.001380368098166461</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.75</v>
+      </c>
+      <c r="C17">
+        <v>0.0009585889570601877</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.8</v>
+      </c>
+      <c r="C18">
+        <v>0.0006134969325186134</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="C19">
+        <v>0.0003450920245417724</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.9</v>
+      </c>
+      <c r="C20">
+        <v>0.0001533742331296998</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="C21">
+        <v>3.834355828243075E-05</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
         <v>1</v>
       </c>
-      <c r="C11">
-        <v>-0.0001697341504041106</v>
-      </c>
-      <c r="D11">
-        <v>200</v>
-      </c>
-      <c r="E11">
-        <v>-400</v>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Euler–Bernoulli beam/Bending.xlsx
+++ b/Euler–Bernoulli beam/Bending.xlsx
@@ -22,10 +22,10 @@
     <t>Displacements Y, mm</t>
   </si>
   <si>
-    <t>Forses, kN</t>
+    <t>Forses, N</t>
   </si>
   <si>
-    <t>Moments kN*m</t>
+    <t>Moments N*m</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,13 +411,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01533742331292879</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-0</v>
+        <v>9999.99999</v>
       </c>
       <c r="E2">
-        <v>10000</v>
+        <v>1E-05</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.05</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0.01384202453992017</v>
+        <v>6.322758607142617E-05</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>9999.99999</v>
       </c>
       <c r="E3">
-        <v>10000</v>
+        <v>100.00001</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>0.01242331288347585</v>
+        <v>0.0001265103445611857</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>9999.99999</v>
       </c>
       <c r="E4">
-        <v>10000</v>
+        <v>200.00001</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.15</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>0.01108128834359584</v>
+        <v>0.0001899034478829969</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>9999.99999</v>
       </c>
       <c r="E5">
-        <v>10000</v>
+        <v>300.00001</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>0.009815950920280123</v>
+        <v>0.0002534620684505777</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>9999.99999</v>
       </c>
       <c r="E6">
-        <v>10000</v>
+        <v>400.00001</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.25</v>
+        <v>50</v>
       </c>
       <c r="C7">
-        <v>0.008627300613528729</v>
+        <v>0.0003172413786776462</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>9999.99999</v>
       </c>
       <c r="E7">
-        <v>10000</v>
+        <v>500.00001</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>0.007515337423341688</v>
+        <v>0.0003812965509779221</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>9999.99999</v>
       </c>
       <c r="E8">
-        <v>10000</v>
+        <v>600.00001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.35</v>
+        <v>70</v>
       </c>
       <c r="C9">
-        <v>0.006480061349719042</v>
+        <v>0.0004456827577651261</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>9999.99999</v>
       </c>
       <c r="E9">
-        <v>10000</v>
+        <v>700.00001</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4</v>
+        <v>80</v>
       </c>
       <c r="C10">
-        <v>0.005521472392660835</v>
+        <v>0.0005104551714529762</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>9999.99999</v>
       </c>
       <c r="E10">
-        <v>10000</v>
+        <v>800.00001</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.45</v>
+        <v>90</v>
       </c>
       <c r="C11">
-        <v>0.004639570552167095</v>
+        <v>0.0005756689644551877</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>9999.99999</v>
       </c>
       <c r="E11">
-        <v>10000</v>
+        <v>900.00001</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="C12">
-        <v>0.003834355828237847</v>
+        <v>0.0006413793091854784</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>9999.99999</v>
       </c>
       <c r="E12">
-        <v>10000</v>
+        <v>1000.00001</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.55</v>
+        <v>110</v>
       </c>
       <c r="C13">
-        <v>0.003105828220873125</v>
+        <v>0.000707641378057572</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>9999.99999</v>
       </c>
       <c r="E13">
-        <v>10000</v>
+        <v>1100.00001</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6000000000000001</v>
+        <v>120</v>
       </c>
       <c r="C14">
-        <v>0.002453987730072964</v>
+        <v>0.0007745103434851883</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>9999.99999</v>
       </c>
       <c r="E14">
-        <v>10000</v>
+        <v>1200.00001</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.65</v>
+        <v>130</v>
       </c>
       <c r="C15">
-        <v>0.001878834355837398</v>
+        <v>0.0008420413778820496</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>9999.99999</v>
       </c>
       <c r="E15">
-        <v>10000</v>
+        <v>1300.00001</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7000000000000001</v>
+        <v>140</v>
       </c>
       <c r="C16">
-        <v>0.001380368098166461</v>
+        <v>0.0009102896536618719</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>9999.99999</v>
       </c>
       <c r="E16">
-        <v>10000</v>
+        <v>1400.00001</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.75</v>
+        <v>150</v>
       </c>
       <c r="C17">
-        <v>0.0009585889570601877</v>
+        <v>0.000979310343238368</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>9999.99999</v>
       </c>
       <c r="E17">
-        <v>10000</v>
+        <v>1500.00001</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8</v>
+        <v>160</v>
       </c>
       <c r="C18">
-        <v>0.0006134969325186134</v>
+        <v>0.001049158619025264</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>9999.99999</v>
       </c>
       <c r="E18">
-        <v>10000</v>
+        <v>1600.00001</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8500000000000001</v>
+        <v>170</v>
       </c>
       <c r="C19">
-        <v>0.0003450920245417724</v>
+        <v>0.001119889653436285</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>9999.99999</v>
       </c>
       <c r="E19">
-        <v>10000</v>
+        <v>1700.00001</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9</v>
+        <v>180</v>
       </c>
       <c r="C20">
-        <v>0.0001533742331296998</v>
+        <v>0.001191558618885159</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>9999.99999</v>
       </c>
       <c r="E20">
-        <v>10000</v>
+        <v>1800.00001</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9500000000000001</v>
+        <v>190</v>
       </c>
       <c r="C21">
-        <v>3.834355828243075E-05</v>
+        <v>0.001264220687785623</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>9999.99999</v>
       </c>
       <c r="E21">
-        <v>10000</v>
+        <v>1900.00001</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,1376 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="C22">
+        <v>0.001337931032551408</v>
+      </c>
+      <c r="D22">
+        <v>9999.99999</v>
+      </c>
+      <c r="E22">
+        <v>2000.00001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>210</v>
+      </c>
+      <c r="C23">
+        <v>0.001412744825596233</v>
+      </c>
+      <c r="D23">
+        <v>9999.99999</v>
+      </c>
+      <c r="E23">
+        <v>2100.00001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>220</v>
+      </c>
+      <c r="C24">
+        <v>0.001488717239333815</v>
+      </c>
+      <c r="D24">
+        <v>9999.99999</v>
+      </c>
+      <c r="E24">
+        <v>2200.00001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>230</v>
+      </c>
+      <c r="C25">
+        <v>0.00156590344617788</v>
+      </c>
+      <c r="D25">
+        <v>9999.99999</v>
+      </c>
+      <c r="E25">
+        <v>2300.00001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>240</v>
+      </c>
+      <c r="C26">
+        <v>0.001644358618542157</v>
+      </c>
+      <c r="D26">
+        <v>9999.99999</v>
+      </c>
+      <c r="E26">
+        <v>2400.00001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>250</v>
+      </c>
+      <c r="C27">
+        <v>0.001724137928840373</v>
+      </c>
+      <c r="D27">
+        <v>9999.99999</v>
+      </c>
+      <c r="E27">
+        <v>-7499.99999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>260</v>
+      </c>
+      <c r="C28">
+        <v>0.001802537928796606</v>
+      </c>
+      <c r="D28">
+        <v>9999.99999</v>
+      </c>
+      <c r="E28">
+        <v>-7399.99999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>270</v>
+      </c>
+      <c r="C29">
+        <v>0.001876855170134935</v>
+      </c>
+      <c r="D29">
+        <v>9999.99999</v>
+      </c>
+      <c r="E29">
+        <v>-7299.99999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>280</v>
+      </c>
+      <c r="C30">
+        <v>0.001947144825269122</v>
+      </c>
+      <c r="D30">
+        <v>9999.99999</v>
+      </c>
+      <c r="E30">
+        <v>-7200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>290</v>
+      </c>
+      <c r="C31">
+        <v>0.002013462066612929</v>
+      </c>
+      <c r="D31">
+        <v>9999.99999</v>
+      </c>
+      <c r="E31">
+        <v>-7100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>300</v>
+      </c>
+      <c r="C32">
+        <v>0.002075862066580073</v>
+      </c>
+      <c r="D32">
+        <v>9999.99999</v>
+      </c>
+      <c r="E32">
+        <v>-7000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>310</v>
+      </c>
+      <c r="C33">
+        <v>0.002134399997584288</v>
+      </c>
+      <c r="D33">
+        <v>9999.99999</v>
+      </c>
+      <c r="E33">
+        <v>-6900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>320</v>
+      </c>
+      <c r="C34">
+        <v>0.002189131032039368</v>
+      </c>
+      <c r="D34">
+        <v>9999.99999</v>
+      </c>
+      <c r="E34">
+        <v>-6800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>330</v>
+      </c>
+      <c r="C35">
+        <v>0.002240110342359073</v>
+      </c>
+      <c r="D35">
+        <v>9999.99999</v>
+      </c>
+      <c r="E35">
+        <v>-6700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>340</v>
+      </c>
+      <c r="C36">
+        <v>0.002287393100957106</v>
+      </c>
+      <c r="D36">
+        <v>9999.99999</v>
+      </c>
+      <c r="E36">
+        <v>-6600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>350.0000000000001</v>
+      </c>
+      <c r="C37">
+        <v>0.002331034480247286</v>
+      </c>
+      <c r="D37">
+        <v>9999.99999</v>
+      </c>
+      <c r="E37">
+        <v>-6500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>360</v>
+      </c>
+      <c r="C38">
+        <v>0.002371089652643401</v>
+      </c>
+      <c r="D38">
+        <v>9999.99999</v>
+      </c>
+      <c r="E38">
+        <v>-6400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>370</v>
+      </c>
+      <c r="C39">
+        <v>0.002407613790559192</v>
+      </c>
+      <c r="D39">
+        <v>9999.99999</v>
+      </c>
+      <c r="E39">
+        <v>-6300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>380</v>
+      </c>
+      <c r="C40">
+        <v>0.002440662066408385</v>
+      </c>
+      <c r="D40">
+        <v>9999.99999</v>
+      </c>
+      <c r="E40">
+        <v>-6200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>390</v>
+      </c>
+      <c r="C41">
+        <v>0.002470289652604674</v>
+      </c>
+      <c r="D41">
+        <v>9999.99999</v>
+      </c>
+      <c r="E41">
+        <v>-6100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>400</v>
+      </c>
+      <c r="C42">
+        <v>0.002496551721561813</v>
+      </c>
+      <c r="D42">
+        <v>9999.99999</v>
+      </c>
+      <c r="E42">
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>410.0000000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.002519503445693453</v>
+      </c>
+      <c r="D43">
+        <v>9999.99999</v>
+      </c>
+      <c r="E43">
+        <v>-5900</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>420</v>
+      </c>
+      <c r="C44">
+        <v>0.002539199997413353</v>
+      </c>
+      <c r="D44">
+        <v>9999.99999</v>
+      </c>
+      <c r="E44">
+        <v>-5800</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>430</v>
+      </c>
+      <c r="C45">
+        <v>0.002555696549135404</v>
+      </c>
+      <c r="D45">
+        <v>9999.99999</v>
+      </c>
+      <c r="E45">
+        <v>-5700</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>440</v>
+      </c>
+      <c r="C46">
+        <v>0.002569048273273406</v>
+      </c>
+      <c r="D46">
+        <v>9999.99999</v>
+      </c>
+      <c r="E46">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>450</v>
+      </c>
+      <c r="C47">
+        <v>0.002579310342241098</v>
+      </c>
+      <c r="D47">
+        <v>9999.99999</v>
+      </c>
+      <c r="E47">
+        <v>-5500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>460</v>
+      </c>
+      <c r="C48">
+        <v>0.002586537928452282</v>
+      </c>
+      <c r="D48">
+        <v>9999.99999</v>
+      </c>
+      <c r="E48">
+        <v>-5400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>470.0000000000001</v>
+      </c>
+      <c r="C49">
+        <v>0.002590786204320723</v>
+      </c>
+      <c r="D49">
+        <v>9999.99999</v>
+      </c>
+      <c r="E49">
+        <v>-5300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>480</v>
+      </c>
+      <c r="C50">
+        <v>0.002592110342260167</v>
+      </c>
+      <c r="D50">
+        <v>9999.99999</v>
+      </c>
+      <c r="E50">
+        <v>-5200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>490</v>
+      </c>
+      <c r="C51">
+        <v>0.002590565514684457</v>
+      </c>
+      <c r="D51">
+        <v>9999.99999</v>
+      </c>
+      <c r="E51">
+        <v>-5100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>500</v>
+      </c>
+      <c r="C52">
+        <v>0.002586206894007278</v>
+      </c>
+      <c r="D52">
+        <v>9999.99999</v>
+      </c>
+      <c r="E52">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>510</v>
+      </c>
+      <c r="C53">
+        <v>0.002579089652642361</v>
+      </c>
+      <c r="D53">
+        <v>9999.99999</v>
+      </c>
+      <c r="E53">
+        <v>-4900</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>520</v>
+      </c>
+      <c r="C54">
+        <v>0.002569268963003577</v>
+      </c>
+      <c r="D54">
+        <v>9999.99999</v>
+      </c>
+      <c r="E54">
+        <v>-4800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>530</v>
+      </c>
+      <c r="C55">
+        <v>0.002556799997504723</v>
+      </c>
+      <c r="D55">
+        <v>9999.99999</v>
+      </c>
+      <c r="E55">
+        <v>-4700</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>540</v>
+      </c>
+      <c r="C56">
+        <v>0.002541737928559616</v>
+      </c>
+      <c r="D56">
+        <v>9999.99999</v>
+      </c>
+      <c r="E56">
+        <v>-4600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>550</v>
+      </c>
+      <c r="C57">
+        <v>0.00252413792858198</v>
+      </c>
+      <c r="D57">
+        <v>9999.99999</v>
+      </c>
+      <c r="E57">
+        <v>-4500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>560</v>
+      </c>
+      <c r="C58">
+        <v>0.002504055169985507</v>
+      </c>
+      <c r="D58">
+        <v>9999.99999</v>
+      </c>
+      <c r="E58">
+        <v>-4400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>570.0000000000001</v>
+      </c>
+      <c r="C59">
+        <v>0.002481544825183845</v>
+      </c>
+      <c r="D59">
+        <v>9999.99999</v>
+      </c>
+      <c r="E59">
+        <v>-4300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>580</v>
+      </c>
+      <c r="C60">
+        <v>0.002456662066590736</v>
+      </c>
+      <c r="D60">
+        <v>9999.99999</v>
+      </c>
+      <c r="E60">
+        <v>-4200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>590</v>
+      </c>
+      <c r="C61">
+        <v>0.002429462066620065</v>
+      </c>
+      <c r="D61">
+        <v>9999.99999</v>
+      </c>
+      <c r="E61">
+        <v>-4100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>600</v>
+      </c>
+      <c r="C62">
+        <v>0.002399999997685647</v>
+      </c>
+      <c r="D62">
+        <v>9999.99999</v>
+      </c>
+      <c r="E62">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>610</v>
+      </c>
+      <c r="C63">
+        <v>0.002368331032201248</v>
+      </c>
+      <c r="D63">
+        <v>9999.99999</v>
+      </c>
+      <c r="E63">
+        <v>-3900</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>620</v>
+      </c>
+      <c r="C64">
+        <v>0.002334510342580596</v>
+      </c>
+      <c r="D64">
+        <v>9999.99999</v>
+      </c>
+      <c r="E64">
+        <v>-3800</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>630</v>
+      </c>
+      <c r="C65">
+        <v>0.00229859310123755</v>
+      </c>
+      <c r="D65">
+        <v>9999.99999</v>
+      </c>
+      <c r="E65">
+        <v>-3700</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>640</v>
+      </c>
+      <c r="C66">
+        <v>0.002260634480586005</v>
+      </c>
+      <c r="D66">
+        <v>9999.99999</v>
+      </c>
+      <c r="E66">
+        <v>-3600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>650</v>
+      </c>
+      <c r="C67">
+        <v>0.002220689653039711</v>
+      </c>
+      <c r="D67">
+        <v>9999.99999</v>
+      </c>
+      <c r="E67">
+        <v>-3500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>660</v>
+      </c>
+      <c r="C68">
+        <v>0.00217881379101236</v>
+      </c>
+      <c r="D68">
+        <v>9999.99999</v>
+      </c>
+      <c r="E68">
+        <v>-3400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>670</v>
+      </c>
+      <c r="C69">
+        <v>0.002135062066917626</v>
+      </c>
+      <c r="D69">
+        <v>9999.99999</v>
+      </c>
+      <c r="E69">
+        <v>-3300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>680</v>
+      </c>
+      <c r="C70">
+        <v>0.00208948965316938</v>
+      </c>
+      <c r="D70">
+        <v>9999.99999</v>
+      </c>
+      <c r="E70">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>690.0000000000001</v>
+      </c>
+      <c r="C71">
+        <v>0.002042151722181455</v>
+      </c>
+      <c r="D71">
+        <v>9999.99999</v>
+      </c>
+      <c r="E71">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>700.0000000000001</v>
+      </c>
+      <c r="C72">
+        <v>0.001993103446367514</v>
+      </c>
+      <c r="D72">
+        <v>9999.99999</v>
+      </c>
+      <c r="E72">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>710</v>
+      </c>
+      <c r="C73">
+        <v>0.001942399998141315</v>
+      </c>
+      <c r="D73">
+        <v>9999.99999</v>
+      </c>
+      <c r="E73">
+        <v>-2900</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>720</v>
+      </c>
+      <c r="C74">
+        <v>0.001890096549916576</v>
+      </c>
+      <c r="D74">
+        <v>9999.99999</v>
+      </c>
+      <c r="E74">
+        <v>-2800</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>730</v>
+      </c>
+      <c r="C75">
+        <v>0.001836248274106916</v>
+      </c>
+      <c r="D75">
+        <v>9999.99999</v>
+      </c>
+      <c r="E75">
+        <v>-2700</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>740</v>
+      </c>
+      <c r="C76">
+        <v>0.001780910343126043</v>
+      </c>
+      <c r="D76">
+        <v>9999.99999</v>
+      </c>
+      <c r="E76">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>750</v>
+      </c>
+      <c r="C77">
+        <v>0.001724137929387755</v>
+      </c>
+      <c r="D77">
+        <v>9999.99999</v>
+      </c>
+      <c r="E77">
+        <v>-2500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>760</v>
+      </c>
+      <c r="C78">
+        <v>0.001665986205305788</v>
+      </c>
+      <c r="D78">
+        <v>9999.99999</v>
+      </c>
+      <c r="E78">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>770</v>
+      </c>
+      <c r="C79">
+        <v>0.001606510343293956</v>
+      </c>
+      <c r="D79">
+        <v>9999.99999</v>
+      </c>
+      <c r="E79">
+        <v>-2300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>780</v>
+      </c>
+      <c r="C80">
+        <v>0.001545765515766121</v>
+      </c>
+      <c r="D80">
+        <v>9999.99999</v>
+      </c>
+      <c r="E80">
+        <v>-2200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>790</v>
+      </c>
+      <c r="C81">
+        <v>0.001483806895135993</v>
+      </c>
+      <c r="D81">
+        <v>9999.99999</v>
+      </c>
+      <c r="E81">
+        <v>-2100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>800</v>
+      </c>
+      <c r="C82">
+        <v>0.001420689653817192</v>
+      </c>
+      <c r="D82">
+        <v>9999.99999</v>
+      </c>
+      <c r="E82">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>810</v>
+      </c>
+      <c r="C83">
+        <v>0.001356468964223465</v>
+      </c>
+      <c r="D83">
+        <v>9999.99999</v>
+      </c>
+      <c r="E83">
+        <v>-1900</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>820.0000000000001</v>
+      </c>
+      <c r="C84">
+        <v>0.001291199998768598</v>
+      </c>
+      <c r="D84">
+        <v>9999.99999</v>
+      </c>
+      <c r="E84">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>830.0000000000001</v>
+      </c>
+      <c r="C85">
+        <v>0.00122493792986633</v>
+      </c>
+      <c r="D85">
+        <v>9999.99999</v>
+      </c>
+      <c r="E85">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>840</v>
+      </c>
+      <c r="C86">
+        <v>0.001157737929930374</v>
+      </c>
+      <c r="D86">
+        <v>9999.99999</v>
+      </c>
+      <c r="E86">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>850</v>
+      </c>
+      <c r="C87">
+        <v>0.001089655171374492</v>
+      </c>
+      <c r="D87">
+        <v>9999.99999</v>
+      </c>
+      <c r="E87">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>860</v>
+      </c>
+      <c r="C88">
+        <v>0.00102074482661246</v>
+      </c>
+      <c r="D88">
+        <v>9999.99999</v>
+      </c>
+      <c r="E88">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>870</v>
+      </c>
+      <c r="C89">
+        <v>0.0009510620680580055</v>
+      </c>
+      <c r="D89">
+        <v>9999.99999</v>
+      </c>
+      <c r="E89">
+        <v>-1300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>880</v>
+      </c>
+      <c r="C90">
+        <v>0.0008806620681248983</v>
+      </c>
+      <c r="D90">
+        <v>9999.99999</v>
+      </c>
+      <c r="E90">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>890</v>
+      </c>
+      <c r="C91">
+        <v>0.0008095999992269064</v>
+      </c>
+      <c r="D91">
+        <v>9999.99999</v>
+      </c>
+      <c r="E91">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>900</v>
+      </c>
+      <c r="C92">
+        <v>0.0007379310337777953</v>
+      </c>
+      <c r="D92">
+        <v>9999.99999</v>
+      </c>
+      <c r="E92">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>910</v>
+      </c>
+      <c r="C93">
+        <v>0.0006657103441913236</v>
+      </c>
+      <c r="D93">
+        <v>9999.99999</v>
+      </c>
+      <c r="E93">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>920</v>
+      </c>
+      <c r="C94">
+        <v>0.0005929931028812643</v>
+      </c>
+      <c r="D94">
+        <v>9999.99999</v>
+      </c>
+      <c r="E94">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>930</v>
+      </c>
+      <c r="C95">
+        <v>0.0005198344822613423</v>
+      </c>
+      <c r="D95">
+        <v>9999.99999</v>
+      </c>
+      <c r="E95">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>940.0000000000001</v>
+      </c>
+      <c r="C96">
+        <v>0.0004462896547452862</v>
+      </c>
+      <c r="D96">
+        <v>9999.99999</v>
+      </c>
+      <c r="E96">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>950.0000000000001</v>
+      </c>
+      <c r="C97">
+        <v>0.0003724137927468563</v>
+      </c>
+      <c r="D97">
+        <v>9999.99999</v>
+      </c>
+      <c r="E97">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>960</v>
+      </c>
+      <c r="C98">
+        <v>0.0002982620686798147</v>
+      </c>
+      <c r="D98">
+        <v>9999.99999</v>
+      </c>
+      <c r="E98">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>970</v>
+      </c>
+      <c r="C99">
+        <v>0.0002238896549578959</v>
+      </c>
+      <c r="D99">
+        <v>9999.99999</v>
+      </c>
+      <c r="E99">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>980</v>
+      </c>
+      <c r="C100">
+        <v>0.0001493517239948023</v>
+      </c>
+      <c r="D100">
+        <v>9999.99999</v>
+      </c>
+      <c r="E100">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>990</v>
+      </c>
+      <c r="C101">
+        <v>7.470344820426139E-05</v>
+      </c>
+      <c r="D101">
+        <v>9999.99999</v>
+      </c>
+      <c r="E101">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>1000</v>
+      </c>
+      <c r="C102">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>10000</v>
+      <c r="D102">
+        <v>9999.99999</v>
+      </c>
+      <c r="E102">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Euler–Bernoulli beam/Bending.xlsx
+++ b/Euler–Bernoulli beam/Bending.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\source\Учеба\3 курс\Вычислительная механика\МКЭ\Finite_element_method\Euler–Bernoulli beam\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E975458-6E5A-4708-89AF-38254EB5EE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="34815" yWindow="4110" windowWidth="21615" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -25,14 +31,14 @@
     <t>Усилия, Н</t>
   </si>
   <si>
-    <t>Моментыб нМ</t>
+    <t>Моменты, нМ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,17 +97,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -139,7 +153,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -173,6 +187,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -207,9 +222,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -382,14 +398,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -417,10 +439,10 @@
         <v>10000</v>
       </c>
       <c r="E2">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -428,7 +450,7 @@
         <v>50</v>
       </c>
       <c r="C3">
-        <v>0.0003172413793100075</v>
+        <v>0.31724137931000751</v>
       </c>
       <c r="D3">
         <v>10000</v>
@@ -437,7 +459,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -445,7 +467,7 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.0006413793103442312</v>
+        <v>0.64137931034423123</v>
       </c>
       <c r="D4">
         <v>10000</v>
@@ -454,7 +476,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -462,7 +484,7 @@
         <v>150</v>
       </c>
       <c r="C5">
-        <v>0.0009793103448268023</v>
+        <v>0.97931034482680224</v>
       </c>
       <c r="D5">
         <v>10000</v>
@@ -471,7 +493,7 @@
         <v>-1500</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -479,7 +501,7 @@
         <v>200</v>
       </c>
       <c r="C6">
-        <v>0.001337931034481853</v>
+        <v>1.3379310344818529</v>
       </c>
       <c r="D6">
         <v>10000</v>
@@ -488,7 +510,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -496,7 +518,7 @@
         <v>250</v>
       </c>
       <c r="C7">
-        <v>0.00172413793103351</v>
+        <v>1.7241379310335101</v>
       </c>
       <c r="D7">
         <v>10000</v>
@@ -505,15 +527,15 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>300.0000000000001</v>
+        <v>300.00000000000011</v>
       </c>
       <c r="C8">
-        <v>0.002075862068964519</v>
+        <v>2.0758620689645189</v>
       </c>
       <c r="D8">
         <v>10000</v>
@@ -522,15 +544,15 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>350.0000000000001</v>
+        <v>350.00000000000011</v>
       </c>
       <c r="C9">
-        <v>0.002331034482757642</v>
+        <v>2.3310344827576421</v>
       </c>
       <c r="D9">
         <v>10000</v>
@@ -539,7 +561,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -547,7 +569,7 @@
         <v>400</v>
       </c>
       <c r="C10">
-        <v>0.00249655172413701</v>
+        <v>2.4965517241370101</v>
       </c>
       <c r="D10">
         <v>10000</v>
@@ -556,7 +578,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -564,7 +586,7 @@
         <v>450</v>
       </c>
       <c r="C11">
-        <v>0.00257931034482675</v>
+        <v>2.5793103448267498</v>
       </c>
       <c r="D11">
         <v>10000</v>
@@ -573,7 +595,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -581,7 +603,7 @@
         <v>500</v>
       </c>
       <c r="C12">
-        <v>0.002586206896550987</v>
+        <v>2.586206896550987</v>
       </c>
       <c r="D12">
         <v>10000</v>
@@ -590,7 +612,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -598,7 +620,7 @@
         <v>550</v>
       </c>
       <c r="C13">
-        <v>0.002524137931033841</v>
+        <v>2.5241379310338412</v>
       </c>
       <c r="D13">
         <v>10000</v>
@@ -607,15 +629,15 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>600.0000000000001</v>
+        <v>600.00000000000011</v>
       </c>
       <c r="C14">
-        <v>0.002399999999999431</v>
+        <v>2.399999999999431</v>
       </c>
       <c r="D14">
         <v>10000</v>
@@ -624,7 +646,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -632,7 +654,7 @@
         <v>650</v>
       </c>
       <c r="C15">
-        <v>0.002220689655171883</v>
+        <v>2.2206896551718831</v>
       </c>
       <c r="D15">
         <v>10000</v>
@@ -641,15 +663,15 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>700.0000000000001</v>
+        <v>700.00000000000011</v>
       </c>
       <c r="C16">
-        <v>0.001993103448275361</v>
+        <v>1.9931034482753609</v>
       </c>
       <c r="D16">
         <v>10000</v>
@@ -658,7 +680,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -666,7 +688,7 @@
         <v>750</v>
       </c>
       <c r="C17">
-        <v>0.001724137931034028</v>
+        <v>1.7241379310340279</v>
       </c>
       <c r="D17">
         <v>10000</v>
@@ -675,7 +697,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -683,7 +705,7 @@
         <v>800</v>
       </c>
       <c r="C18">
-        <v>0.001420689655172033</v>
+        <v>1.4206896551720329</v>
       </c>
       <c r="D18">
         <v>10000</v>
@@ -692,15 +714,15 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>850.0000000000001</v>
+        <v>850.00000000000011</v>
       </c>
       <c r="C19">
-        <v>0.001089655172413499</v>
+        <v>1.0896551724134991</v>
       </c>
       <c r="D19">
         <v>10000</v>
@@ -709,7 +731,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -717,7 +739,7 @@
         <v>900</v>
       </c>
       <c r="C20">
-        <v>0.0007379310344825567</v>
+        <v>0.7379310344825567</v>
       </c>
       <c r="D20">
         <v>10000</v>
@@ -726,15 +748,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>950.0000000000001</v>
+        <v>950.00000000000011</v>
       </c>
       <c r="C21">
-        <v>0.0003724137931033465</v>
+        <v>0.37241379310334649</v>
       </c>
       <c r="D21">
         <v>10000</v>
@@ -743,7 +765,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -757,7 +779,7 @@
         <v>10000</v>
       </c>
       <c r="E22">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Euler–Bernoulli beam/Bending.xlsx
+++ b/Euler–Bernoulli beam/Bending.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\source\Учеба\3 курс\Вычислительная механика\МКЭ\Finite_element_method\Euler–Bernoulli beam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E975458-6E5A-4708-89AF-38254EB5EE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A47A12-F4BE-4450-9A7A-2E1D95A76AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34815" yWindow="4110" windowWidth="21615" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="3000" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -38,6 +38,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -63,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -75,9 +78,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -86,15 +87,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -401,27 +447,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -429,16 +477,16 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>10000</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -446,16 +494,16 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>50</v>
       </c>
-      <c r="C3">
-        <v>0.31724137931000751</v>
-      </c>
-      <c r="D3">
-        <v>10000</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="3">
+        <v>0.76666666666552452</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E3" s="3">
         <v>-500</v>
       </c>
     </row>
@@ -463,16 +511,16 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>100</v>
       </c>
-      <c r="C4">
-        <v>0.64137931034423123</v>
-      </c>
-      <c r="D4">
-        <v>10000</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="3">
+        <v>1.5499999999979901</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E4" s="3">
         <v>-1000</v>
       </c>
     </row>
@@ -480,16 +528,16 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>150</v>
       </c>
-      <c r="C5">
-        <v>0.97931034482680224</v>
-      </c>
-      <c r="D5">
-        <v>10000</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="3">
+        <v>2.366666666664019</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E5" s="3">
         <v>-1500</v>
       </c>
     </row>
@@ -497,16 +545,16 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>200</v>
       </c>
-      <c r="C6">
-        <v>1.3379310344818529</v>
-      </c>
-      <c r="D6">
-        <v>10000</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="3">
+        <v>3.2333333333302412</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E6" s="3">
         <v>-2000</v>
       </c>
     </row>
@@ -514,16 +562,16 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>250</v>
       </c>
-      <c r="C7">
-        <v>1.7241379310335101</v>
-      </c>
-      <c r="D7">
-        <v>10000</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="3">
+        <v>4.1666666666632972</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E7" s="3">
         <v>7500</v>
       </c>
     </row>
@@ -531,16 +579,16 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>300.00000000000011</v>
       </c>
-      <c r="C8">
-        <v>2.0758620689645189</v>
-      </c>
-      <c r="D8">
-        <v>10000</v>
-      </c>
-      <c r="E8">
+      <c r="C8" s="3">
+        <v>5.0166666666631583</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7000</v>
       </c>
     </row>
@@ -548,16 +596,16 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>350.00000000000011</v>
       </c>
-      <c r="C9">
-        <v>2.3310344827576421</v>
-      </c>
-      <c r="D9">
-        <v>10000</v>
-      </c>
-      <c r="E9">
+      <c r="C9" s="3">
+        <v>5.6333333333298059</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6500</v>
       </c>
     </row>
@@ -565,16 +613,16 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>400</v>
       </c>
-      <c r="C10">
-        <v>2.4965517241370101</v>
-      </c>
-      <c r="D10">
-        <v>10000</v>
-      </c>
-      <c r="E10">
+      <c r="C10" s="3">
+        <v>6.0333333333298764</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6000</v>
       </c>
     </row>
@@ -582,16 +630,16 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>450</v>
       </c>
-      <c r="C11">
-        <v>2.5793103448267498</v>
-      </c>
-      <c r="D11">
-        <v>10000</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="3">
+        <v>6.2333333333300223</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E11" s="3">
         <v>5500</v>
       </c>
     </row>
@@ -599,16 +647,16 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>500</v>
       </c>
-      <c r="C12">
-        <v>2.586206896550987</v>
-      </c>
-      <c r="D12">
-        <v>10000</v>
-      </c>
-      <c r="E12">
+      <c r="C12" s="4">
+        <v>6.2499999999968789</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E12" s="3">
         <v>5000</v>
       </c>
     </row>
@@ -616,16 +664,16 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>550</v>
       </c>
-      <c r="C13">
-        <v>2.5241379310338412</v>
-      </c>
-      <c r="D13">
-        <v>10000</v>
-      </c>
-      <c r="E13">
+      <c r="C13" s="3">
+        <v>6.0999999999970562</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E13" s="3">
         <v>4500</v>
       </c>
     </row>
@@ -633,16 +681,16 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>600.00000000000011</v>
       </c>
-      <c r="C14">
-        <v>2.399999999999431</v>
-      </c>
-      <c r="D14">
-        <v>10000</v>
-      </c>
-      <c r="E14">
+      <c r="C14" s="3">
+        <v>5.799999999997226</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E14" s="3">
         <v>4000</v>
       </c>
     </row>
@@ -650,16 +698,16 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>650</v>
       </c>
-      <c r="C15">
-        <v>2.2206896551718831</v>
-      </c>
-      <c r="D15">
-        <v>10000</v>
-      </c>
-      <c r="E15">
+      <c r="C15" s="3">
+        <v>5.3666666666641003</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3500</v>
       </c>
     </row>
@@ -667,16 +715,16 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>700.00000000000011</v>
       </c>
-      <c r="C16">
-        <v>1.9931034482753609</v>
-      </c>
-      <c r="D16">
-        <v>10000</v>
-      </c>
-      <c r="E16">
+      <c r="C16" s="3">
+        <v>4.8166666666643616</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E16" s="3">
         <v>3000</v>
       </c>
     </row>
@@ -684,16 +732,16 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>750</v>
       </c>
-      <c r="C17">
-        <v>1.7241379310340279</v>
-      </c>
-      <c r="D17">
-        <v>10000</v>
-      </c>
-      <c r="E17">
+      <c r="C17" s="3">
+        <v>4.166666666664649</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
       </c>
     </row>
@@ -701,16 +749,16 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>800</v>
       </c>
-      <c r="C18">
-        <v>1.4206896551720329</v>
-      </c>
-      <c r="D18">
-        <v>10000</v>
-      </c>
-      <c r="E18">
+      <c r="C18" s="3">
+        <v>3.4333333333316478</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2000</v>
       </c>
     </row>
@@ -718,16 +766,16 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>850.00000000000011</v>
       </c>
-      <c r="C19">
-        <v>1.0896551724134991</v>
-      </c>
-      <c r="D19">
-        <v>10000</v>
-      </c>
-      <c r="E19">
+      <c r="C19" s="3">
+        <v>2.633333333332025</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E19" s="3">
         <v>1500</v>
       </c>
     </row>
@@ -735,16 +783,16 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>900</v>
       </c>
-      <c r="C20">
-        <v>0.7379310344825567</v>
-      </c>
-      <c r="D20">
-        <v>10000</v>
-      </c>
-      <c r="E20">
+      <c r="C20" s="3">
+        <v>1.783333333332435</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -752,33 +800,33 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>950.00000000000011</v>
       </c>
-      <c r="C21">
-        <v>0.37241379310334649</v>
-      </c>
-      <c r="D21">
-        <v>10000</v>
-      </c>
-      <c r="E21">
+      <c r="C21" s="3">
+        <v>0.89999999999954239</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>1000</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>10000</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="5">
+        <v>-10000</v>
+      </c>
+      <c r="E22" s="5">
         <v>0</v>
       </c>
     </row>
